--- a/00_additional_data/COS_leaf_area.xlsx
+++ b/00_additional_data/COS_leaf_area.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasminl\Dropbox (Weizmann Institute)\Ecophysiology group\Yasmin\Work with Jonathan on soil-branch transition 21_01_22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Laser-chamber-fluxes\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405A33A-BE0A-4FD4-A71B-61BE3EB44075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8BDAF3-5E9E-487F-A7AA-902ADEF4F244}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,13 +60,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,7 +81,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +91,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -164,13 +169,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,16 +509,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCAAA35-6464-4FEB-9F46-F02D7DBB18D6}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E6" sqref="E6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="6" max="6" width="12.83984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,43 +544,147 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
+        <v>116</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6.8241379310344836</v>
+      </c>
+      <c r="D2" s="9">
+        <f>((PI()*E2*C2/100)+(E2*C2/100*2))*B2*2</f>
+        <v>8.1401694891633625E-2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="11">
+        <v>44050</v>
+      </c>
+      <c r="G2" s="9">
+        <f>D2/PI()</f>
+        <v>2.5910964236123556E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7">
+        <v>156</v>
+      </c>
+      <c r="C3" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D5" si="0">((PI()*E3*C3/100)+(E3*C3/100*2))*B3*2</f>
+        <v>7.7257159885427931E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F3" s="11">
+        <v>44050</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G5" si="1">D3/PI()</f>
+        <v>2.4591717770013483E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6.8241379310344836</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>4.0700847445816812E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44257</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2955482118061778E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
+        <v>156</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>7.7257159885427931E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>44257</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4591717770013483E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>183</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C6" s="4">
         <v>7.886885245901639</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D6" s="5">
         <v>0.1261546315077445</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5">
-        <f>D2/PI()</f>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14">
+        <v>44426</v>
+      </c>
+      <c r="G6" s="5">
+        <f>D6/PI()</f>
         <v>4.0156266396788209E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B7" s="3">
         <v>101</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C7" s="4">
         <v>6.5930693069306932</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D7" s="5">
         <v>5.8204371316432538E-2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8">
-        <f>D3/PI()</f>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
+        <v>44426</v>
+      </c>
+      <c r="G7" s="6">
+        <f>D7/PI()</f>
         <v>1.8527026809132732E-2</v>
       </c>
     </row>

--- a/00_additional_data/COS_leaf_area.xlsx
+++ b/00_additional_data/COS_leaf_area.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="la" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
